--- a/src/data/ESTACIONS ORIGINALS+ESTAT.xlsx
+++ b/src/data/ESTACIONS ORIGINALS+ESTAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joant\Documents\OBS Scripts\meteo-rss-auto-scroll\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joant\OneDrive\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390A2BF9-2C62-4992-B154-84B8BD084662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A615D31-73F4-4BD1-9170-1ED42EBB3F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06FA7B89-1D94-4875-A8C9-B47DD0029F27}"/>
   </bookViews>
@@ -671,12 +671,6 @@
     <t>Viladecans</t>
   </si>
   <si>
-    <t>Viladecans [UG]</t>
-  </si>
-  <si>
-    <t>29.04.1993</t>
-  </si>
-  <si>
     <t>Baix Penedès</t>
   </si>
   <si>
@@ -2343,19 +2337,31 @@
   </si>
   <si>
     <t>COM</t>
+  </si>
+  <si>
+    <t>Viladecans [YY]</t>
+  </si>
+  <si>
+    <t>11.02.2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E5871"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2378,11 +2384,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3108,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633C58A3-79F4-4E70-8E1B-0D312C940632}">
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3160,7 +3167,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3189,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3251,7 +3258,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3313,7 +3320,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3342,7 +3349,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3400,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3429,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3517,7 +3524,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3579,7 +3586,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3641,7 +3648,7 @@
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3670,7 +3677,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3699,7 +3706,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3761,7 +3768,7 @@
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3790,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3819,7 +3826,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3878,7 +3885,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3907,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3936,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3965,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3994,7 +4001,7 @@
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4023,7 +4030,7 @@
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4052,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4081,7 +4088,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4110,7 +4117,7 @@
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4139,7 +4146,7 @@
         <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4168,7 +4175,7 @@
         <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4197,7 +4204,7 @@
         <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4259,7 +4266,7 @@
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4288,7 +4295,7 @@
         <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4350,7 +4357,7 @@
         <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4412,7 +4419,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4441,7 +4448,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4503,7 +4510,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4532,7 +4539,7 @@
         <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -4594,7 +4601,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -4623,7 +4630,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -4652,7 +4659,7 @@
         <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4681,7 +4688,7 @@
         <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4710,7 +4717,7 @@
         <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4772,7 +4779,7 @@
         <v>14</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -4801,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -4893,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -4922,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -4981,7 +4988,7 @@
         <v>14</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5043,7 +5050,7 @@
         <v>14</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -5072,7 +5079,7 @@
         <v>14</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -5083,36 +5090,36 @@
         <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67">
-        <v>41.299280000000003</v>
+        <v>766</v>
+      </c>
+      <c r="D67" s="2">
+        <v>41.287970000000001</v>
       </c>
       <c r="E67">
-        <v>2.0378699999999998</v>
+        <v>2.04487</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>211</v>
+        <v>767</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
         <v>212</v>
-      </c>
-      <c r="B68" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" t="s">
-        <v>214</v>
       </c>
       <c r="D68">
         <v>41.20187</v>
@@ -5124,24 +5131,24 @@
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I68" t="s">
         <v>14</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D69">
         <v>41.341709999999999</v>
@@ -5153,24 +5160,24 @@
         <v>545</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D70">
         <v>41.215530000000001</v>
@@ -5182,24 +5189,24 @@
         <v>59</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I70" t="s">
         <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D71">
         <v>41.271509999999999</v>
@@ -5211,24 +5218,24 @@
         <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I71" t="s">
         <v>14</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
         <v>225</v>
-      </c>
-      <c r="B72" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" t="s">
-        <v>227</v>
       </c>
       <c r="D72">
         <v>41.476379999999999</v>
@@ -5240,10 +5247,10 @@
         <v>126</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I72" t="s">
         <v>19</v>
@@ -5255,13 +5262,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D73">
         <v>41.452150000000003</v>
@@ -5273,24 +5280,24 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D74">
         <v>41.390039999999999</v>
@@ -5302,10 +5309,10 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I74" t="s">
         <v>19</v>
@@ -5317,13 +5324,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D75">
         <v>41.418640000000003</v>
@@ -5335,24 +5342,24 @@
         <v>411</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D76">
         <v>41.389429999999997</v>
@@ -5364,10 +5371,10 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I76" t="s">
         <v>19</v>
@@ -5379,13 +5386,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D77">
         <v>41.383899999999997</v>
@@ -5397,7 +5404,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I77" t="s">
         <v>14</v>
@@ -5409,13 +5416,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D78">
         <v>41.379190000000001</v>
@@ -5427,24 +5434,24 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I78" t="s">
         <v>14</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" t="s">
         <v>245</v>
-      </c>
-      <c r="B79" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" t="s">
-        <v>247</v>
       </c>
       <c r="D79">
         <v>42.10736</v>
@@ -5456,24 +5463,24 @@
         <v>1167</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
         <v>14</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D80">
         <v>42.259450000000001</v>
@@ -5485,7 +5492,7 @@
         <v>943</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
@@ -5496,13 +5503,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D81">
         <v>42.264769999999999</v>
@@ -5514,24 +5521,24 @@
         <v>1386</v>
       </c>
       <c r="G81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D82">
         <v>42.229030000000002</v>
@@ -5543,10 +5550,10 @@
         <v>720</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I82" t="s">
         <v>19</v>
@@ -5558,13 +5565,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D83">
         <v>42.234139999999996</v>
@@ -5576,24 +5583,24 @@
         <v>788</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I83" t="s">
         <v>14</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D84">
         <v>42.08032</v>
@@ -5605,24 +5612,24 @@
         <v>873</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
         <v>264</v>
-      </c>
-      <c r="B85" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" t="s">
-        <v>266</v>
       </c>
       <c r="D85">
         <v>42.322110000000002</v>
@@ -5634,24 +5641,24 @@
         <v>2478</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D86">
         <v>42.386049999999997</v>
@@ -5663,7 +5670,7 @@
         <v>1097</v>
       </c>
       <c r="G86" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
@@ -5675,13 +5682,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87">
         <v>42.466050000000003</v>
@@ -5693,7 +5700,7 @@
         <v>2230</v>
       </c>
       <c r="G87" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
@@ -5704,13 +5711,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D88">
         <v>42.292650000000002</v>
@@ -5722,24 +5729,24 @@
         <v>2143</v>
       </c>
       <c r="G88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I88" t="s">
         <v>14</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D89">
         <v>42.440130000000003</v>
@@ -5751,24 +5758,24 @@
         <v>1213</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
         <v>280</v>
-      </c>
-      <c r="B90" t="s">
-        <v>281</v>
-      </c>
-      <c r="C90" t="s">
-        <v>282</v>
       </c>
       <c r="D90">
         <v>41.442369999999997</v>
@@ -5780,24 +5787,24 @@
         <v>438</v>
       </c>
       <c r="G90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D91">
         <v>41.392409999999998</v>
@@ -5809,24 +5816,24 @@
         <v>446</v>
       </c>
       <c r="G91" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I91" t="s">
         <v>14</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D92">
         <v>41.528790000000001</v>
@@ -5838,24 +5845,24 @@
         <v>709</v>
       </c>
       <c r="G92" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
         <v>290</v>
-      </c>
-      <c r="B93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" t="s">
-        <v>292</v>
       </c>
       <c r="D93">
         <v>41.28801</v>
@@ -5867,24 +5874,24 @@
         <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D94">
         <v>41.27861</v>
@@ -5896,24 +5903,24 @@
         <v>161</v>
       </c>
       <c r="G94" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I94" t="s">
         <v>14</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D95">
         <v>41.235750000000003</v>
@@ -5925,24 +5932,24 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" t="s">
         <v>300</v>
-      </c>
-      <c r="B96" t="s">
-        <v>301</v>
-      </c>
-      <c r="C96" t="s">
-        <v>302</v>
       </c>
       <c r="D96">
         <v>41.529110000000003</v>
@@ -5954,10 +5961,10 @@
         <v>228</v>
       </c>
       <c r="G96" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I96" t="s">
         <v>19</v>
@@ -5968,13 +5975,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C97" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D97">
         <v>41.359909999999999</v>
@@ -5986,24 +5993,24 @@
         <v>505</v>
       </c>
       <c r="G97" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D98">
         <v>41.511240000000001</v>
@@ -6015,24 +6022,24 @@
         <v>283</v>
       </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" t="s">
         <v>311</v>
-      </c>
-      <c r="B99" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" t="s">
-        <v>313</v>
       </c>
       <c r="D99">
         <v>42.145569999999999</v>
@@ -6044,24 +6051,24 @@
         <v>461</v>
       </c>
       <c r="G99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I99" t="s">
         <v>14</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D100">
         <v>42.19144</v>
@@ -6073,10 +6080,10 @@
         <v>422</v>
       </c>
       <c r="G100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I100" t="s">
         <v>19</v>
@@ -6087,13 +6094,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D101">
         <v>42.188130000000001</v>
@@ -6105,7 +6112,7 @@
         <v>433</v>
       </c>
       <c r="G101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -6117,13 +6124,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>319</v>
+      </c>
+      <c r="C102" t="s">
         <v>320</v>
-      </c>
-      <c r="B102" t="s">
-        <v>321</v>
-      </c>
-      <c r="C102" t="s">
-        <v>322</v>
       </c>
       <c r="D102">
         <v>41.874490000000002</v>
@@ -6135,7 +6142,7 @@
         <v>171</v>
       </c>
       <c r="G102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I102" t="s">
         <v>14</v>
@@ -6147,13 +6154,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D103">
         <v>41.914610000000003</v>
@@ -6165,7 +6172,7 @@
         <v>97</v>
       </c>
       <c r="G103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I103" t="s">
         <v>14</v>
@@ -6177,13 +6184,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D104">
         <v>41.960120000000003</v>
@@ -6198,7 +6205,7 @@
         <v>175</v>
       </c>
       <c r="H104" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I104" t="s">
         <v>19</v>
@@ -6210,13 +6217,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C105" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D105">
         <v>41.982230000000001</v>
@@ -6228,7 +6235,7 @@
         <v>72</v>
       </c>
       <c r="G105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I105" t="s">
         <v>14</v>
@@ -6240,13 +6247,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D106">
         <v>41.954250000000002</v>
@@ -6258,10 +6265,10 @@
         <v>108</v>
       </c>
       <c r="G106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H106" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
@@ -6273,13 +6280,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" t="s">
         <v>335</v>
-      </c>
-      <c r="B107" t="s">
-        <v>336</v>
-      </c>
-      <c r="C107" t="s">
-        <v>337</v>
       </c>
       <c r="D107">
         <v>42.039470000000001</v>
@@ -6291,24 +6298,24 @@
         <v>774</v>
       </c>
       <c r="G107" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" t="s">
         <v>339</v>
-      </c>
-      <c r="B108" t="s">
-        <v>340</v>
-      </c>
-      <c r="C108" t="s">
-        <v>341</v>
       </c>
       <c r="D108">
         <v>41.51773</v>
@@ -6320,24 +6327,24 @@
         <v>81</v>
       </c>
       <c r="G108" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B109" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C109" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D109">
         <v>41.619909999999997</v>
@@ -6349,24 +6356,24 @@
         <v>460</v>
       </c>
       <c r="G109" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D110">
         <v>41.649079999999998</v>
@@ -6378,10 +6385,10 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H110" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I110" t="s">
         <v>19</v>
@@ -6393,13 +6400,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D111">
         <v>41.647069999999999</v>
@@ -6411,24 +6418,24 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I111" t="s">
         <v>14</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D112">
         <v>41.545169999999999</v>
@@ -6440,24 +6447,24 @@
         <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C113" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D113">
         <v>41.511749999999999</v>
@@ -6469,10 +6476,10 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H113" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
@@ -6484,13 +6491,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>356</v>
+      </c>
+      <c r="B114" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" t="s">
         <v>358</v>
-      </c>
-      <c r="B114" t="s">
-        <v>359</v>
-      </c>
-      <c r="C114" t="s">
-        <v>360</v>
       </c>
       <c r="D114">
         <v>40.557859999999998</v>
@@ -6502,24 +6509,24 @@
         <v>24</v>
       </c>
       <c r="G114" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I114" t="s">
         <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C115" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D115">
         <v>40.552190000000003</v>
@@ -6531,10 +6538,10 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H115" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
@@ -6546,13 +6553,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B116" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D116">
         <v>40.70776</v>
@@ -6564,24 +6571,24 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B117" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D117">
         <v>40.627249999999997</v>
@@ -6593,24 +6600,24 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D118">
         <v>40.718249999999998</v>
@@ -6622,24 +6629,24 @@
         <v>240</v>
       </c>
       <c r="G118" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I118" t="s">
         <v>14</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B119" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D119">
         <v>40.717269999999999</v>
@@ -6651,10 +6658,10 @@
         <v>205</v>
       </c>
       <c r="G119" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
@@ -6666,13 +6673,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D120">
         <v>40.707189999999997</v>
@@ -6684,24 +6691,24 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I120" t="s">
         <v>14</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D121">
         <v>40.626519999999999</v>
@@ -6713,24 +6720,24 @@
         <v>210</v>
       </c>
       <c r="G121" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>381</v>
+      </c>
+      <c r="B122" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" t="s">
         <v>383</v>
-      </c>
-      <c r="B122" t="s">
-        <v>384</v>
-      </c>
-      <c r="C122" t="s">
-        <v>385</v>
       </c>
       <c r="D122">
         <v>41.760359999999999</v>
@@ -6742,24 +6749,24 @@
         <v>267</v>
       </c>
       <c r="G122" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I122" t="s">
         <v>14</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C123" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D123">
         <v>41.80104</v>
@@ -6771,24 +6778,24 @@
         <v>301</v>
       </c>
       <c r="G123" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I123" t="s">
         <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D124">
         <v>41.921729999999997</v>
@@ -6800,24 +6807,24 @@
         <v>366</v>
       </c>
       <c r="G124" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I124" t="s">
         <v>14</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B125" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C125" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D125">
         <v>41.9178</v>
@@ -6829,24 +6836,24 @@
         <v>668</v>
       </c>
       <c r="G125" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I125" t="s">
         <v>14</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B126" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D126">
         <v>41.876939999999998</v>
@@ -6858,24 +6865,24 @@
         <v>443</v>
       </c>
       <c r="G126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I126" t="s">
         <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C127" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D127">
         <v>41.87912</v>
@@ -6887,24 +6894,24 @@
         <v>576</v>
       </c>
       <c r="G127" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I127" t="s">
         <v>14</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D128">
         <v>41.784869999999998</v>
@@ -6916,24 +6923,24 @@
         <v>238</v>
       </c>
       <c r="G128" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I128" t="s">
         <v>14</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B129" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C129" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D129">
         <v>41.995460000000001</v>
@@ -6945,24 +6952,24 @@
         <v>594</v>
       </c>
       <c r="G129" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" t="s">
+        <v>407</v>
+      </c>
+      <c r="C130" t="s">
         <v>408</v>
-      </c>
-      <c r="B130" t="s">
-        <v>409</v>
-      </c>
-      <c r="C130" t="s">
-        <v>410</v>
       </c>
       <c r="D130">
         <v>41.952240000000003</v>
@@ -6974,10 +6981,10 @@
         <v>509</v>
       </c>
       <c r="G130" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H130" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
@@ -6989,13 +6996,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D131">
         <v>42.042650000000002</v>
@@ -7007,24 +7014,24 @@
         <v>925</v>
       </c>
       <c r="G131" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B132" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D132">
         <v>42.11477</v>
@@ -7036,24 +7043,24 @@
         <v>684</v>
       </c>
       <c r="G132" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B133" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D133">
         <v>41.878129999999999</v>
@@ -7065,24 +7072,24 @@
         <v>816</v>
       </c>
       <c r="G133" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B134" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C134" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D134">
         <v>42.073979999999999</v>
@@ -7094,24 +7101,24 @@
         <v>626</v>
       </c>
       <c r="G134" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I134" t="s">
         <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B135" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C135" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D135">
         <v>41.93582</v>
@@ -7123,10 +7130,10 @@
         <v>498</v>
       </c>
       <c r="G135" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H135" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I135" t="s">
         <v>19</v>
@@ -7138,13 +7145,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C136" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D136">
         <v>41.93497</v>
@@ -7156,7 +7163,7 @@
         <v>499</v>
       </c>
       <c r="G136" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I136" t="s">
         <v>14</v>
@@ -7167,13 +7174,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D137">
         <v>41.845019999999998</v>
@@ -7185,10 +7192,10 @@
         <v>777</v>
       </c>
       <c r="G137" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H137" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -7200,13 +7207,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C138" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D138">
         <v>41.84008</v>
@@ -7218,24 +7225,24 @@
         <v>953</v>
       </c>
       <c r="G138" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I138" t="s">
         <v>14</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B139" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C139" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D139">
         <v>41.968670000000003</v>
@@ -7253,18 +7260,18 @@
         <v>14</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" t="s">
         <v>437</v>
-      </c>
-      <c r="C140" t="s">
-        <v>439</v>
       </c>
       <c r="D140">
         <v>41.975540000000002</v>
@@ -7276,10 +7283,10 @@
         <v>435</v>
       </c>
       <c r="G140" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H140" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
@@ -7291,13 +7298,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>440</v>
+      </c>
+      <c r="B141" t="s">
+        <v>441</v>
+      </c>
+      <c r="C141" t="s">
         <v>442</v>
-      </c>
-      <c r="B141" t="s">
-        <v>443</v>
-      </c>
-      <c r="C141" t="s">
-        <v>444</v>
       </c>
       <c r="D141">
         <v>42.139240000000001</v>
@@ -7309,24 +7316,24 @@
         <v>690</v>
       </c>
       <c r="G141" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B142" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C142" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D142">
         <v>42.23939</v>
@@ -7338,10 +7345,10 @@
         <v>513</v>
       </c>
       <c r="G142" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H142" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
@@ -7353,13 +7360,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B143" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C143" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D143">
         <v>42.243879999999997</v>
@@ -7371,24 +7378,24 @@
         <v>508</v>
       </c>
       <c r="G143" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I143" t="s">
         <v>14</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B144" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D144">
         <v>42.051299999999998</v>
@@ -7400,24 +7407,24 @@
         <v>1572</v>
       </c>
       <c r="G144" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B145" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C145" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D145">
         <v>42.162520000000001</v>
@@ -7429,24 +7436,24 @@
         <v>473</v>
       </c>
       <c r="G145" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I145" t="s">
         <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>455</v>
+      </c>
+      <c r="B146" t="s">
+        <v>456</v>
+      </c>
+      <c r="C146" t="s">
         <v>457</v>
-      </c>
-      <c r="B146" t="s">
-        <v>458</v>
-      </c>
-      <c r="C146" t="s">
-        <v>459</v>
       </c>
       <c r="D146">
         <v>42.519390000000001</v>
@@ -7458,24 +7465,24 @@
         <v>2451</v>
       </c>
       <c r="G146" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C147" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D147">
         <v>42.750889999999998</v>
@@ -7487,24 +7494,24 @@
         <v>1693</v>
       </c>
       <c r="G147" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B148" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C148" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D148">
         <v>42.646909999999998</v>
@@ -7516,24 +7523,24 @@
         <v>2266</v>
       </c>
       <c r="G148" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I148" t="s">
         <v>14</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B149" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C149" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D149">
         <v>42.534120000000001</v>
@@ -7545,24 +7552,24 @@
         <v>2519</v>
       </c>
       <c r="G149" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B150" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C150" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D150">
         <v>42.700290000000003</v>
@@ -7574,24 +7581,24 @@
         <v>2400</v>
       </c>
       <c r="G150" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I150" t="s">
         <v>14</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B151" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C151" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D151">
         <v>42.405329999999999</v>
@@ -7603,7 +7610,7 @@
         <v>679</v>
       </c>
       <c r="G151" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -7614,13 +7621,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B152" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D152">
         <v>42.518810000000002</v>
@@ -7632,24 +7639,24 @@
         <v>954</v>
       </c>
       <c r="G152" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>476</v>
+      </c>
+      <c r="B153" t="s">
+        <v>477</v>
+      </c>
+      <c r="C153" t="s">
         <v>478</v>
-      </c>
-      <c r="B153" t="s">
-        <v>479</v>
-      </c>
-      <c r="C153" t="s">
-        <v>480</v>
       </c>
       <c r="D153">
         <v>41.67342</v>
@@ -7661,10 +7668,10 @@
         <v>196</v>
       </c>
       <c r="G153" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H153" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -7676,13 +7683,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B154" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C154" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D154">
         <v>41.656599999999997</v>
@@ -7694,24 +7701,24 @@
         <v>264</v>
       </c>
       <c r="G154" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I154" t="s">
         <v>14</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B155" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C155" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D155">
         <v>41.672789999999999</v>
@@ -7723,24 +7730,24 @@
         <v>223</v>
       </c>
       <c r="G155" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I155" t="s">
         <v>14</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B156" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D156">
         <v>41.636420000000001</v>
@@ -7752,24 +7759,24 @@
         <v>261</v>
       </c>
       <c r="G156" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I156" t="s">
         <v>14</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C157" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D157">
         <v>41.613329999999998</v>
@@ -7781,10 +7788,10 @@
         <v>256</v>
       </c>
       <c r="G157" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -7796,13 +7803,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B158" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C158" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D158">
         <v>41.618169999999999</v>
@@ -7814,24 +7821,24 @@
         <v>247</v>
       </c>
       <c r="G158" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I158" t="s">
         <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>497</v>
+      </c>
+      <c r="B159" t="s">
+        <v>498</v>
+      </c>
+      <c r="C159" t="s">
         <v>499</v>
-      </c>
-      <c r="B159" t="s">
-        <v>500</v>
-      </c>
-      <c r="C159" t="s">
-        <v>501</v>
       </c>
       <c r="D159">
         <v>42.116529999999997</v>
@@ -7843,7 +7850,7 @@
         <v>176</v>
       </c>
       <c r="G159" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I159" t="s">
         <v>14</v>
@@ -7855,13 +7862,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>501</v>
+      </c>
+      <c r="B160" t="s">
+        <v>502</v>
+      </c>
+      <c r="C160" t="s">
         <v>503</v>
-      </c>
-      <c r="B160" t="s">
-        <v>504</v>
-      </c>
-      <c r="C160" t="s">
-        <v>505</v>
       </c>
       <c r="D160">
         <v>41.250790000000002</v>
@@ -7873,24 +7880,24 @@
         <v>500</v>
       </c>
       <c r="G160" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I160" t="s">
         <v>14</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B161" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C161" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D161">
         <v>41.122300000000003</v>
@@ -7902,24 +7909,24 @@
         <v>141</v>
       </c>
       <c r="G161" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I161" t="s">
         <v>14</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B162" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C162" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D162">
         <v>41.150759999999998</v>
@@ -7931,10 +7938,10 @@
         <v>350</v>
       </c>
       <c r="G162" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H162" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I162" t="s">
         <v>19</v>
@@ -7946,13 +7953,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B163" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C163" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D163">
         <v>41.153739999999999</v>
@@ -7964,24 +7971,24 @@
         <v>359</v>
       </c>
       <c r="G163" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I163" t="s">
         <v>14</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B164" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C164" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D164">
         <v>41.285209999999999</v>
@@ -7993,24 +8000,24 @@
         <v>404</v>
       </c>
       <c r="G164" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I164" t="s">
         <v>14</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B165" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C165" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D165">
         <v>41.216299999999997</v>
@@ -8022,24 +8029,24 @@
         <v>300</v>
       </c>
       <c r="G165" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I165" t="s">
         <v>14</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B166" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C166" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D166">
         <v>41.319099999999999</v>
@@ -8051,10 +8058,10 @@
         <v>631</v>
       </c>
       <c r="G166" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H166" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I166" t="s">
         <v>19</v>
@@ -8066,13 +8073,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B167" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C167" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D167">
         <v>41.32</v>
@@ -8084,24 +8091,24 @@
         <v>687</v>
       </c>
       <c r="G167" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I167" t="s">
         <v>14</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>525</v>
+      </c>
+      <c r="B168" t="s">
+        <v>526</v>
+      </c>
+      <c r="C168" t="s">
         <v>527</v>
-      </c>
-      <c r="B168" t="s">
-        <v>528</v>
-      </c>
-      <c r="C168" t="s">
-        <v>529</v>
       </c>
       <c r="D168">
         <v>41.196399999999997</v>
@@ -8113,24 +8120,24 @@
         <v>256</v>
       </c>
       <c r="G168" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I168" t="s">
         <v>14</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B169" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C169" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D169">
         <v>41.062890000000003</v>
@@ -8142,24 +8149,24 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I169" t="s">
         <v>14</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B170" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C170" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D170">
         <v>41.244149999999998</v>
@@ -8171,24 +8178,24 @@
         <v>69</v>
       </c>
       <c r="G170" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I170" t="s">
         <v>14</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B171" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C171" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D171">
         <v>41.043430000000001</v>
@@ -8200,24 +8207,24 @@
         <v>317</v>
       </c>
       <c r="G171" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I171" t="s">
         <v>14</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B172" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C172" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D172">
         <v>41.184989999999999</v>
@@ -8241,13 +8248,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>540</v>
+      </c>
+      <c r="B173" t="s">
+        <v>541</v>
+      </c>
+      <c r="C173" t="s">
         <v>542</v>
-      </c>
-      <c r="B173" t="s">
-        <v>543</v>
-      </c>
-      <c r="C173" t="s">
-        <v>544</v>
       </c>
       <c r="D173">
         <v>42.150849999999998</v>
@@ -8259,10 +8266,10 @@
         <v>700</v>
       </c>
       <c r="G173" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H173" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I173" t="s">
         <v>19</v>
@@ -8274,13 +8281,13 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B174" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C174" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D174">
         <v>42.37717</v>
@@ -8292,24 +8299,24 @@
         <v>1405</v>
       </c>
       <c r="G174" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I174" t="s">
         <v>14</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B175" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C175" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D175">
         <v>42.398479999999999</v>
@@ -8321,7 +8328,7 @@
         <v>1971</v>
       </c>
       <c r="G175" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I175" t="s">
         <v>14</v>
@@ -8333,13 +8340,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B176" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C176" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D176">
         <v>42.221890000000002</v>
@@ -8351,24 +8358,24 @@
         <v>730</v>
       </c>
       <c r="G176" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I176" t="s">
         <v>14</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B177" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C177" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D177">
         <v>42.258389999999999</v>
@@ -8380,7 +8387,7 @@
         <v>852</v>
       </c>
       <c r="G177" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I177" t="s">
         <v>14</v>
@@ -8392,13 +8399,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B178" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C178" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D178">
         <v>42.422049999999999</v>
@@ -8410,10 +8417,10 @@
         <v>2364</v>
       </c>
       <c r="G178" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H178" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I178" t="s">
         <v>19</v>
@@ -8425,13 +8432,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B179" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C179" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D179">
         <v>42.421019999999999</v>
@@ -8443,7 +8450,7 @@
         <v>2413</v>
       </c>
       <c r="G179" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I179" t="s">
         <v>14</v>
@@ -8455,13 +8462,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>563</v>
+      </c>
+      <c r="B180" t="s">
+        <v>564</v>
+      </c>
+      <c r="C180" t="s">
         <v>565</v>
-      </c>
-      <c r="B180" t="s">
-        <v>566</v>
-      </c>
-      <c r="C180" t="s">
-        <v>567</v>
       </c>
       <c r="D180">
         <v>41.675550000000001</v>
@@ -8473,24 +8480,24 @@
         <v>554</v>
       </c>
       <c r="G180" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I180" t="s">
         <v>14</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B181" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C181" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D181">
         <v>41.689390000000003</v>
@@ -8502,24 +8509,24 @@
         <v>429</v>
       </c>
       <c r="G181" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I181" t="s">
         <v>14</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B182" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C182" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D182">
         <v>41.794089999999997</v>
@@ -8531,24 +8538,24 @@
         <v>513</v>
       </c>
       <c r="G182" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I182" t="s">
         <v>14</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>573</v>
+      </c>
+      <c r="B183" t="s">
+        <v>574</v>
+      </c>
+      <c r="C183" t="s">
         <v>575</v>
-      </c>
-      <c r="B183" t="s">
-        <v>576</v>
-      </c>
-      <c r="C183" t="s">
-        <v>577</v>
       </c>
       <c r="D183">
         <v>41.486919999999998</v>
@@ -8560,10 +8567,10 @@
         <v>97</v>
       </c>
       <c r="G183" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I183" t="s">
         <v>19</v>
@@ -8575,13 +8582,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B184" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C184" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D184">
         <v>41.564819999999997</v>
@@ -8593,10 +8600,10 @@
         <v>122</v>
       </c>
       <c r="G184" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H184" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I184" t="s">
         <v>19</v>
@@ -8608,13 +8615,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B185" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C185" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D185">
         <v>41.565089999999998</v>
@@ -8626,24 +8633,24 @@
         <v>122</v>
       </c>
       <c r="G185" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I185" t="s">
         <v>14</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D186">
         <v>41.819490000000002</v>
@@ -8655,24 +8662,24 @@
         <v>268</v>
       </c>
       <c r="G186" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I186" t="s">
         <v>14</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B187" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C187" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D187">
         <v>41.742809999999999</v>
@@ -8684,24 +8691,24 @@
         <v>370</v>
       </c>
       <c r="G187" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I187" t="s">
         <v>14</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B188" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C188" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D188">
         <v>41.595219999999998</v>
@@ -8713,24 +8720,24 @@
         <v>235</v>
       </c>
       <c r="G188" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I188" t="s">
         <v>14</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B189" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C189" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D189">
         <v>41.658250000000002</v>
@@ -8742,24 +8749,24 @@
         <v>260</v>
       </c>
       <c r="G189" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I189" t="s">
         <v>14</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B190" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C190" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D190">
         <v>41.629179999999998</v>
@@ -8771,10 +8778,10 @@
         <v>190</v>
       </c>
       <c r="G190" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H190" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I190" t="s">
         <v>19</v>
@@ -8786,13 +8793,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B191" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C191" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D191">
         <v>41.59957</v>
@@ -8804,10 +8811,10 @@
         <v>161</v>
       </c>
       <c r="G191" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H191" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I191" t="s">
         <v>19</v>
@@ -8819,13 +8826,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B192" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C192" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D192">
         <v>41.683280000000003</v>
@@ -8837,7 +8844,7 @@
         <v>286</v>
       </c>
       <c r="G192" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I192" t="s">
         <v>14</v>
@@ -8849,13 +8856,13 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B193" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C193" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D193">
         <v>41.598219999999998</v>
@@ -8867,10 +8874,10 @@
         <v>165</v>
       </c>
       <c r="G193" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H193" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I193" t="s">
         <v>19</v>
@@ -8882,13 +8889,13 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B194" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C194" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D194">
         <v>41.584490000000002</v>
@@ -8900,24 +8907,24 @@
         <v>170</v>
       </c>
       <c r="G194" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I194" t="s">
         <v>14</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B195" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C195" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D195">
         <v>41.357410000000002</v>
@@ -8929,24 +8936,24 @@
         <v>350</v>
       </c>
       <c r="G195" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I195" t="s">
         <v>14</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B196" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C196" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D196">
         <v>41.460140000000003</v>
@@ -8958,10 +8965,10 @@
         <v>100</v>
       </c>
       <c r="G196" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H196" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I196" t="s">
         <v>19</v>
@@ -8973,13 +8980,13 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B197" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C197" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D197">
         <v>41.463790000000003</v>
@@ -8991,24 +8998,24 @@
         <v>89</v>
       </c>
       <c r="G197" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I197" t="s">
         <v>14</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B198" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C198" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D198">
         <v>41.526029999999999</v>
@@ -9020,10 +9027,10 @@
         <v>144</v>
       </c>
       <c r="G198" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H198" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I198" t="s">
         <v>19</v>
@@ -9035,13 +9042,13 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B199" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C199" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D199">
         <v>41.519089999999998</v>
@@ -9053,24 +9060,24 @@
         <v>215</v>
       </c>
       <c r="G199" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I199" t="s">
         <v>14</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B200" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C200" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D200">
         <v>41.714500000000001</v>
@@ -9082,24 +9089,24 @@
         <v>222</v>
       </c>
       <c r="G200" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I200" t="s">
         <v>14</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>621</v>
+      </c>
+      <c r="B201" t="s">
+        <v>622</v>
+      </c>
+      <c r="C201" t="s">
         <v>623</v>
-      </c>
-      <c r="B201" t="s">
-        <v>624</v>
-      </c>
-      <c r="C201" t="s">
-        <v>625</v>
       </c>
       <c r="D201">
         <v>41.960949999999997</v>
@@ -9123,13 +9130,13 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B202" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C202" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D202">
         <v>41.842559999999999</v>
@@ -9141,10 +9148,10 @@
         <v>871</v>
       </c>
       <c r="G202" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H202" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I202" t="s">
         <v>19</v>
@@ -9155,13 +9162,13 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B203" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C203" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D203">
         <v>41.738939999999999</v>
@@ -9179,18 +9186,18 @@
         <v>14</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B204" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C204" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D204">
         <v>41.723460000000003</v>
@@ -9202,10 +9209,10 @@
         <v>63</v>
       </c>
       <c r="G204" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H204" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I204" t="s">
         <v>19</v>
@@ -9217,13 +9224,13 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B205" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C205" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D205">
         <v>41.864719999999998</v>
@@ -9235,10 +9242,10 @@
         <v>163</v>
       </c>
       <c r="G205" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H205" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I205" t="s">
         <v>19</v>
@@ -9250,13 +9257,13 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B206" t="s">
+        <v>634</v>
+      </c>
+      <c r="C206" t="s">
         <v>636</v>
-      </c>
-      <c r="C206" t="s">
-        <v>638</v>
       </c>
       <c r="D206">
         <v>41.864890000000003</v>
@@ -9268,24 +9275,24 @@
         <v>162</v>
       </c>
       <c r="G206" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I206" t="s">
         <v>14</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B207" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C207" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D207">
         <v>41.882440000000003</v>
@@ -9297,10 +9304,10 @@
         <v>117</v>
       </c>
       <c r="G207" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H207" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I207" t="s">
         <v>19</v>
@@ -9312,13 +9319,13 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>641</v>
+      </c>
+      <c r="B208" t="s">
+        <v>642</v>
+      </c>
+      <c r="C208" t="s">
         <v>643</v>
-      </c>
-      <c r="B208" t="s">
-        <v>644</v>
-      </c>
-      <c r="C208" t="s">
-        <v>645</v>
       </c>
       <c r="D208">
         <v>41.953780000000002</v>
@@ -9330,10 +9337,10 @@
         <v>693</v>
       </c>
       <c r="G208" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H208" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I208" t="s">
         <v>19</v>
@@ -9345,13 +9352,13 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B209" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C209" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D209">
         <v>42.135980000000004</v>
@@ -9363,24 +9370,24 @@
         <v>845</v>
       </c>
       <c r="G209" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I209" t="s">
         <v>14</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B210" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C210" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D210">
         <v>42.182540000000003</v>
@@ -9392,10 +9399,10 @@
         <v>2316</v>
       </c>
       <c r="G210" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H210" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I210" t="s">
         <v>19</v>
@@ -9407,13 +9414,13 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B211" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C211" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D211">
         <v>42.19088</v>
@@ -9425,24 +9432,24 @@
         <v>2290</v>
       </c>
       <c r="G211" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I211" t="s">
         <v>14</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B212" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C212" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D212">
         <v>42.087449999999997</v>
@@ -9454,24 +9461,24 @@
         <v>785</v>
       </c>
       <c r="G212" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I212" t="s">
         <v>14</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B213" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C213" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D213">
         <v>42.007069999999999</v>
@@ -9483,24 +9490,24 @@
         <v>545</v>
       </c>
       <c r="G213" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I213" t="s">
         <v>14</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B214" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C214" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D214">
         <v>41.804830000000003</v>
@@ -9512,24 +9519,24 @@
         <v>659</v>
       </c>
       <c r="G214" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I214" t="s">
         <v>14</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B215" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C215" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D215">
         <v>41.987659999999998</v>
@@ -9541,24 +9548,24 @@
         <v>691</v>
       </c>
       <c r="G215" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I215" t="s">
         <v>14</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>666</v>
+      </c>
+      <c r="B216" t="s">
+        <v>667</v>
+      </c>
+      <c r="C216" t="s">
         <v>668</v>
-      </c>
-      <c r="B216" t="s">
-        <v>669</v>
-      </c>
-      <c r="C216" t="s">
-        <v>670</v>
       </c>
       <c r="D216">
         <v>41.171300000000002</v>
@@ -9570,24 +9577,24 @@
         <v>112</v>
       </c>
       <c r="G216" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I216" t="s">
         <v>14</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B217" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C217" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D217">
         <v>41.103929999999998</v>
@@ -9599,7 +9606,7 @@
         <v>5</v>
       </c>
       <c r="G217" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I217" t="s">
         <v>14</v>
@@ -9611,13 +9618,13 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B218" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C218" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D218">
         <v>41.146769999999997</v>
@@ -9629,24 +9636,24 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I218" t="s">
         <v>14</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>676</v>
+      </c>
+      <c r="B219" t="s">
+        <v>677</v>
+      </c>
+      <c r="C219" t="s">
         <v>678</v>
-      </c>
-      <c r="B219" t="s">
-        <v>679</v>
-      </c>
-      <c r="C219" t="s">
-        <v>680</v>
       </c>
       <c r="D219">
         <v>41.086709999999997</v>
@@ -9658,10 +9665,10 @@
         <v>382</v>
       </c>
       <c r="G219" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H219" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I219" t="s">
         <v>19</v>
@@ -9673,13 +9680,13 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B220" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C220" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D220">
         <v>41.083069999999999</v>
@@ -9691,24 +9698,24 @@
         <v>400</v>
       </c>
       <c r="G220" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I220" t="s">
         <v>14</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B221" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C221" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D221">
         <v>41.065640000000002</v>
@@ -9720,24 +9727,24 @@
         <v>350</v>
       </c>
       <c r="G221" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I221" t="s">
         <v>14</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B222" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C222" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D222">
         <v>40.951340000000002</v>
@@ -9749,24 +9756,24 @@
         <v>515</v>
       </c>
       <c r="G222" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I222" t="s">
         <v>14</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>689</v>
+      </c>
+      <c r="B223" t="s">
+        <v>690</v>
+      </c>
+      <c r="C223" t="s">
         <v>691</v>
-      </c>
-      <c r="B223" t="s">
-        <v>692</v>
-      </c>
-      <c r="C223" t="s">
-        <v>693</v>
       </c>
       <c r="D223">
         <v>41.68835</v>
@@ -9778,24 +9785,24 @@
         <v>291</v>
       </c>
       <c r="G223" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I223" t="s">
         <v>14</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B224" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C224" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D224">
         <v>41.572360000000003</v>
@@ -9807,24 +9814,24 @@
         <v>413</v>
       </c>
       <c r="G224" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I224" t="s">
         <v>14</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B225" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C225" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D225">
         <v>41.66695</v>
@@ -9836,24 +9843,24 @@
         <v>427</v>
       </c>
       <c r="G225" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I225" t="s">
         <v>14</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B226" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C226" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D226">
         <v>41.68994</v>
@@ -9865,10 +9872,10 @@
         <v>291</v>
       </c>
       <c r="G226" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H226" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I226" t="s">
         <v>19</v>
@@ -9880,13 +9887,13 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>701</v>
+      </c>
+      <c r="B227" t="s">
+        <v>702</v>
+      </c>
+      <c r="C227" t="s">
         <v>703</v>
-      </c>
-      <c r="B227" t="s">
-        <v>704</v>
-      </c>
-      <c r="C227" t="s">
-        <v>705</v>
       </c>
       <c r="D227">
         <v>42.770110000000003</v>
@@ -9898,24 +9905,24 @@
         <v>2228</v>
       </c>
       <c r="G227" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I227" t="s">
         <v>14</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B228" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C228" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D228">
         <v>42.698560000000001</v>
@@ -9927,10 +9934,10 @@
         <v>1002</v>
       </c>
       <c r="G228" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H228" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I228" t="s">
         <v>19</v>
@@ -9942,13 +9949,13 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B229" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C229" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D229">
         <v>42.638350000000003</v>
@@ -9960,7 +9967,7 @@
         <v>2247</v>
       </c>
       <c r="G229" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I229" t="s">
         <v>14</v>
@@ -9972,13 +9979,13 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B230" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C230" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D230">
         <v>42.697369999999999</v>
@@ -9990,24 +9997,24 @@
         <v>1027</v>
       </c>
       <c r="G230" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I230" t="s">
         <v>14</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>713</v>
+      </c>
+      <c r="B231" t="s">
+        <v>714</v>
+      </c>
+      <c r="C231" t="s">
         <v>715</v>
-      </c>
-      <c r="B231" t="s">
-        <v>716</v>
-      </c>
-      <c r="C231" t="s">
-        <v>717</v>
       </c>
       <c r="D231">
         <v>41.478920000000002</v>
@@ -10019,24 +10026,24 @@
         <v>147</v>
       </c>
       <c r="G231" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I231" t="s">
         <v>14</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B232" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C232" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D232">
         <v>41.484009999999998</v>
@@ -10048,10 +10055,10 @@
         <v>84</v>
       </c>
       <c r="G232" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H232" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I232" t="s">
         <v>19</v>
@@ -10063,13 +10070,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B233" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C233" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D233">
         <v>41.632860000000001</v>
@@ -10081,24 +10088,24 @@
         <v>421</v>
       </c>
       <c r="G233" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I233" t="s">
         <v>14</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B234" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C234" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D234">
         <v>41.56568</v>
@@ -10110,24 +10117,24 @@
         <v>258</v>
       </c>
       <c r="G234" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I234" t="s">
         <v>14</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B235" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C235" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D235">
         <v>41.483110000000003</v>
@@ -10139,24 +10146,24 @@
         <v>158</v>
       </c>
       <c r="G235" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I235" t="s">
         <v>14</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B236" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C236" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D236">
         <v>41.681289999999997</v>
@@ -10174,18 +10181,18 @@
         <v>14</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B237" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C237" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D237">
         <v>41.553609999999999</v>
@@ -10197,24 +10204,24 @@
         <v>313</v>
       </c>
       <c r="G237" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I237" t="s">
         <v>14</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B238" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C238" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D238">
         <v>41.59252</v>
@@ -10226,24 +10233,24 @@
         <v>343</v>
       </c>
       <c r="G238" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I238" t="s">
         <v>14</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>736</v>
+      </c>
+      <c r="B239" t="s">
+        <v>737</v>
+      </c>
+      <c r="C239" t="s">
         <v>738</v>
-      </c>
-      <c r="B239" t="s">
-        <v>739</v>
-      </c>
-      <c r="C239" t="s">
-        <v>740</v>
       </c>
       <c r="D239">
         <v>41.612349999999999</v>
@@ -10255,10 +10262,10 @@
         <v>164</v>
       </c>
       <c r="G239" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H239" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I239" t="s">
         <v>19</v>
@@ -10270,13 +10277,13 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B240" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C240" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D240">
         <v>41.612650000000002</v>
@@ -10288,24 +10295,24 @@
         <v>176</v>
       </c>
       <c r="G240" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I240" t="s">
         <v>14</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B241" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C241" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D241">
         <v>41.773620000000001</v>
@@ -10317,7 +10324,7 @@
         <v>1668</v>
       </c>
       <c r="G241" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I241" t="s">
         <v>14</v>
@@ -10329,13 +10336,13 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B242" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C242" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D242">
         <v>41.609220000000001</v>
@@ -10347,24 +10354,24 @@
         <v>210</v>
       </c>
       <c r="G242" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I242" t="s">
         <v>14</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B243" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C243" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D243">
         <v>41.618650000000002</v>
@@ -10382,18 +10389,18 @@
         <v>14</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B244" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C244" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D244">
         <v>41.549109999999999</v>
@@ -10405,10 +10412,10 @@
         <v>75</v>
       </c>
       <c r="G244" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H244" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -10420,13 +10427,13 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B245" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C245" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D245">
         <v>41.567340000000002</v>
@@ -10438,24 +10445,24 @@
         <v>123</v>
       </c>
       <c r="G245" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I245" t="s">
         <v>14</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B246" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C246" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D246">
         <v>41.747610000000002</v>
@@ -10467,24 +10474,24 @@
         <v>1030</v>
       </c>
       <c r="G246" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I246" t="s">
         <v>14</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B247" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C247" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D247">
         <v>41.544400000000003</v>
@@ -10496,10 +10503,10 @@
         <v>126</v>
       </c>
       <c r="G247" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H247" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I247" t="s">
         <v>19</v>
